--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1392161.347057313</v>
+        <v>1390273.765540911</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>315.939644040551</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>350.9503191698216</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034777</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.4837616268615</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.4816178308487</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>346.904368468056</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.346189233408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>73.08247830773104</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>83.34766826151389</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>313.9565076686019</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>154.6156885461884</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>65.05884990877774</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>101.4470869306114</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>122.313709559931</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>43.38343087627743</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>206.8933087008745</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>147.1163355383936</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>143.3158222056513</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>245.5591000916431</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>23.54872654977568</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>231.5887287380117</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>134.7144732959482</v>
       </c>
       <c r="T25" t="n">
-        <v>206.8064269214864</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>151.1915480896523</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.40666873704717</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965531</v>
+        <v>7.203899898044213</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>144.3654234629329</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898766</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463173</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1271.984870679801</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C2" t="n">
-        <v>903.0223537393897</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D2" t="n">
-        <v>903.0223537393897</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>903.0223537393897</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.124202655613</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1271.984870679801</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M3" t="n">
         <v>1237.953133915166</v>
@@ -4428,22 +4428,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.0594214943678</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="C4" t="n">
-        <v>373.0594214943678</v>
+        <v>2395.367785894156</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>2395.367785894156</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>2395.367785894156</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>2395.367785894156</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2226.367985632488</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065018</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065018</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.820796875036</v>
+        <v>2407.975480672791</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>829.2607436694175</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990286</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2125.745768720171</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1752.280010459091</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.506081940498</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="6">
@@ -4641,10 +4641,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4662,7 +4662,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>433.0923781427081</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>264.0925778810405</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942403</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942403</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>466.3758425937212</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>466.3758425937212</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6913543878343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1328.288804049173</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1328.288804049173</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>942.5005514509282</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4835,19 +4835,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.546485980902</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.546485980902</v>
+        <v>1697.251320989584</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>662.4129741975678</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>662.4129741975678</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>662.4129741975678</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="V10" t="n">
-        <v>662.4129741975678</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="W10" t="n">
-        <v>372.9958041606071</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="X10" t="n">
-        <v>372.9958041606071</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.9958041606071</v>
+        <v>404.8646000824888</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5042,10 +5042,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>665.685973528613</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
         <v>542.1367719529251</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1255.174613123679</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>1255.174613123679</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655736</v>
+        <v>1000.490124917793</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>711.072954880832</v>
       </c>
       <c r="X13" t="n">
-        <v>665.685973528613</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.685973528613</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,28 +5261,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5297,7 +5297,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.1830073829216</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1289.933130456009</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1035.248642250122</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>745.8314722131613</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>745.8314722131613</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.8314722131613</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110095</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555221</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.440640161986</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441948</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5671,22 +5671,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765184</v>
+        <v>1050.95676543139</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706316</v>
+        <v>796.2722772255034</v>
       </c>
       <c r="W19" t="n">
-        <v>241.980548233671</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>241.980548233671</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>241.980548233671</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5729,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5774,22 +5774,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1475.129678083382</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1475.129678083382</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1475.129678083382</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1186.00103929694</v>
+        <v>1153.913158293453</v>
       </c>
       <c r="V22" t="n">
-        <v>1186.00103929694</v>
+        <v>1153.913158293453</v>
       </c>
       <c r="W22" t="n">
-        <v>896.5838692599799</v>
+        <v>1153.913158293453</v>
       </c>
       <c r="X22" t="n">
-        <v>668.5943183619626</v>
+        <v>1153.913158293453</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>1153.913158293453</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1362.84104500644</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>1139.055629795946</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1139.055629795946</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>884.3711415900586</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,16 +6209,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.0432218861033</v>
+        <v>412.2823606383758</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581963</v>
+        <v>412.2823606383758</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581963</v>
+        <v>412.2823606383758</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581963</v>
+        <v>412.2823606383757</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6382,22 +6382,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.78763177146</v>
+        <v>922.4921098188668</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655734</v>
+        <v>922.4921098188668</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286127</v>
+        <v>633.0749397819061</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305953</v>
+        <v>633.074939781906</v>
       </c>
       <c r="Y28" t="n">
-        <v>413.0432218861033</v>
+        <v>412.2823606383758</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,22 +6449,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.1010933248436</v>
+        <v>494.8466681110231</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783074</v>
+        <v>494.8466681110231</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473424</v>
+        <v>487.570001547342</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463201</v>
+        <v>395.4177732463197</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297805</v>
+        <v>304.2886910297802</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667513</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1736.652680096193</v>
+        <v>1623.942368323875</v>
       </c>
       <c r="U31" t="n">
-        <v>1590.829020032625</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="V31" t="n">
-        <v>1391.905397108108</v>
+        <v>1191.650971894288</v>
       </c>
       <c r="W31" t="n">
-        <v>1158.249092352519</v>
+        <v>957.9946671386979</v>
       </c>
       <c r="X31" t="n">
-        <v>986.0204067358719</v>
+        <v>785.7659815220513</v>
       </c>
       <c r="Y31" t="n">
-        <v>820.9886928737126</v>
+        <v>620.734267659892</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,16 +6701,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,25 +6725,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6786,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,10 +6862,10 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6883,7 +6883,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,22 +6920,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6959,28 +6959,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.193690363625</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,13 +7260,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,13 +7497,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>182.034074286795</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814756</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814623</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>22.04402060665542</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>44.93311153869679</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>178.1641301821118</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23707,16 +23707,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>79.34404369770283</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>78.59331985064355</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>2.105225817279932</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>40.67825230693423</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>86.41562585401709</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,19 +24181,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>54.64862366056568</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>63.20633668765504</v>
       </c>
       <c r="T25" t="n">
-        <v>14.74113413690284</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675362</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>135.0458043089251</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.1779846150476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>86.20831649161103</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>86.66867230708736</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>945598.6813359332</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>945598.6813359333</v>
+        <v>945598.6813359334</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>945598.6813359333</v>
+        <v>945598.6813359332</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>983502.0675940801</v>
+        <v>983502.0675940802</v>
       </c>
     </row>
     <row r="12">
@@ -26317,7 +26317,7 @@
         <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
         <v>430131.9657114797</v>
@@ -26332,28 +26332,28 @@
         <v>430131.9657114797</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114795</v>
       </c>
       <c r="K2" t="n">
-        <v>447504.3510797972</v>
+        <v>447504.3510797971</v>
       </c>
       <c r="L2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253563</v>
       </c>
       <c r="M2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253563</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253563</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253563</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253563</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284574</v>
       </c>
     </row>
     <row r="4">
@@ -26424,31 +26424,31 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007478</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007505</v>
-      </c>
       <c r="H4" t="n">
+        <v>7916.7316560075</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="I4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.7316560075</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020398</v>
+        <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732791</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732796</v>
@@ -26457,7 +26457,7 @@
         <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26488,22 +26488,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369171.0325685188</v>
+        <v>-369171.0325685189</v>
       </c>
       <c r="C6" t="n">
         <v>220796.8466460257</v>
       </c>
       <c r="D6" t="n">
-        <v>220796.8466460258</v>
+        <v>220796.8466460257</v>
       </c>
       <c r="E6" t="n">
-        <v>-194932.1283701406</v>
+        <v>-195029.5874961126</v>
       </c>
       <c r="F6" t="n">
-        <v>330227.9081067556</v>
+        <v>330130.4489807835</v>
       </c>
       <c r="G6" t="n">
-        <v>330227.9081067555</v>
+        <v>330130.4489807835</v>
       </c>
       <c r="H6" t="n">
-        <v>330227.9081067553</v>
+        <v>330130.4489807833</v>
       </c>
       <c r="I6" t="n">
-        <v>330227.9081067557</v>
+        <v>330130.4489807834</v>
       </c>
       <c r="J6" t="n">
-        <v>153804.6889141626</v>
+        <v>153707.2297881903</v>
       </c>
       <c r="K6" t="n">
-        <v>280632.1830765248</v>
+        <v>280613.6893385902</v>
       </c>
       <c r="L6" t="n">
-        <v>313179.4419071359</v>
+        <v>313179.4419071361</v>
       </c>
       <c r="M6" t="n">
-        <v>188721.3334741656</v>
+        <v>188721.3334741658</v>
       </c>
       <c r="N6" t="n">
-        <v>323522.3487080028</v>
+        <v>323522.3487080029</v>
       </c>
       <c r="O6" t="n">
         <v>323522.3487080029</v>
       </c>
       <c r="P6" t="n">
-        <v>279359.7434051573</v>
+        <v>279359.7434051572</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26768,16 +26768,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108364</v>
+        <v>12.92863350108354</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>66.79419762292957</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>55.92572657188987</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.34821855507579</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>154.7652032677791</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>7.778673152626936</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.8917494226456</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>83.08841053406411</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>141.6874371965704</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>92.91953807310955</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>215.1154121322806</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>147.0866890412412</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>184.8347873113664</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,43 +31045,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3926104730631</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>389.1274892183196</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,13 +35735,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>355.8957474878089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330542</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412265</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043187</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>110.0570533917296</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>621.6037559756885</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,13 +37950,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
